--- a/documents/Cjenik 2020.xlsx
+++ b/documents/Cjenik 2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Centar Taban\ZAG ORA\Evidencije\CJENIK 2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EBE93687-88E6-4598-9595-0F58ED0A86AE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98A43601-EC34-43E9-B54D-733D7F69915C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B27958B2-9F5D-4EC8-9D34-F44FF3A088AA}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="117">
   <si>
     <t>CJENIK USLUGA</t>
   </si>
@@ -166,9 +166,6 @@
   </si>
   <si>
     <t>KOMBINIRANI MANUALNI TRETMAN</t>
-  </si>
-  <si>
-    <t>1,5 h</t>
   </si>
   <si>
     <t>Osnovni manipulacijski tretman</t>
@@ -457,6 +454,12 @@
   </si>
   <si>
     <t>Korekcija obrva - pinceta</t>
+  </si>
+  <si>
+    <t>90 min</t>
+  </si>
+  <si>
+    <t>NJEGA</t>
   </si>
 </sst>
 </file>
@@ -642,7 +645,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="133">
+  <borders count="132">
     <border>
       <left/>
       <right/>
@@ -2311,68 +2314,32 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="double">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </top>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="236">
+  <cellXfs count="234">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2380,9 +2347,6 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2416,9 +2380,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2482,12 +2443,6 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -2563,17 +2518,11 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2599,15 +2548,6 @@
     <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2698,343 +2638,385 @@
     <xf numFmtId="164" fontId="5" fillId="0" borderId="83" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="84" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="85" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="86" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="88" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="89" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="91" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="92" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="93" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="94" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="94" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="94" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="95" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="96" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="98" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="99" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="100" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="101" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="102" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="103" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="104" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="105" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="106" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="107" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="108" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="109" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="110" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="111" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="112" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="113" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="114" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="7" fillId="0" borderId="115" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="7" fillId="0" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="7" fillId="0" borderId="106" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="19" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="19" fillId="0" borderId="115" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="19" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="117" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="118" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="110" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="123" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="124" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="125" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="126" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="127" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="128" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="128" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="128" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="129" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="91" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="121" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="122" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="112" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="130" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="131" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="113" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="114" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="110" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="116" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="119" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="120" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="113" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="114" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="84" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="84" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="85" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="86" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="88" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="89" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="91" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="92" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="93" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="94" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="94" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="94" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="95" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="96" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="98" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="99" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="100" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="101" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="102" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="103" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="104" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="105" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="106" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="107" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="108" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="109" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="110" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="111" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="112" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="113" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="114" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="7" fillId="0" borderId="115" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="7" fillId="0" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="7" fillId="0" borderId="106" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="113" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="114" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="19" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="113" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="114" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="19" fillId="0" borderId="115" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="19" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="110" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="116" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="117" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="118" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="119" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="120" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="121" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="110" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="122" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="112" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="123" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="124" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="125" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="126" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="127" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="128" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="128" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="128" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="129" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="91" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="130" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="131" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="110" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="132" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3351,110 +3333,113 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EEE1CE5-46D4-4AFC-ADB7-89CCF34326B0}">
-  <dimension ref="A1:M138"/>
+  <dimension ref="A1:M126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="E125" sqref="E125"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="29.109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15" style="4" customWidth="1"/>
-    <col min="3" max="3" width="13.77734375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="9.109375" style="3"/>
+    <col min="2" max="2" width="15" style="3" customWidth="1"/>
+    <col min="3" max="3" width="13.77734375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="9.109375" style="2"/>
     <col min="5" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="230" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2"/>
-    </row>
-    <row r="2" spans="1:13" s="4" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+      <c r="C1" s="230"/>
+    </row>
+    <row r="2" spans="1:13" s="3" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:13" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="211" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="7"/>
+      <c r="B3" s="212"/>
+      <c r="C3" s="213"/>
+      <c r="E3" s="1" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="231" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="5">
         <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="11"/>
-      <c r="B5" s="12" t="s">
+      <c r="A5" s="232"/>
+      <c r="B5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="7">
         <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="221" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="17"/>
-      <c r="B7" s="18" t="s">
+      <c r="A7" s="224"/>
+      <c r="B7" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="17"/>
-      <c r="B8" s="18" t="s">
+      <c r="A8" s="224"/>
+      <c r="B8" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="11" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="22">
+      <c r="C9" s="14">
         <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="24">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" s="3" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="25" t="s">
+      <c r="A10" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="26"/>
-      <c r="C11" s="27">
+      <c r="B10" s="18"/>
+      <c r="C10" s="19">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="8"/>
+      <c r="C11" s="16">
         <v>70</v>
       </c>
       <c r="E11" s="1"/>
@@ -3467,14 +3452,10 @@
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
     </row>
-    <row r="12" spans="1:13" s="3" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="15"/>
-      <c r="C12" s="24">
-        <v>70</v>
-      </c>
+    <row r="12" spans="1:13" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="233"/>
+      <c r="B12" s="233"/>
+      <c r="C12" s="21"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
@@ -3485,567 +3466,583 @@
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
     </row>
-    <row r="13" spans="1:13" ht="17.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="29"/>
-      <c r="B13" s="29"/>
-      <c r="C13" s="30"/>
+    <row r="13" spans="1:13" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D13" s="1"/>
-      <c r="G13" s="31"/>
-    </row>
-    <row r="14" spans="1:13" ht="16.350000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G14" s="32"/>
-    </row>
-    <row r="15" spans="1:13" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="5" t="s">
+      <c r="G13" s="22"/>
+    </row>
+    <row r="14" spans="1:13" ht="16.350000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="211" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="7"/>
-      <c r="G15" s="33"/>
+      <c r="B14" s="212"/>
+      <c r="C14" s="213"/>
+      <c r="E14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="23"/>
+    </row>
+    <row r="15" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="27">
+        <v>70</v>
+      </c>
+      <c r="G15" s="24"/>
     </row>
     <row r="16" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" s="35" t="s">
+      <c r="A16" s="28"/>
+      <c r="B16" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="30">
+        <v>110</v>
+      </c>
+      <c r="G16" s="24"/>
+    </row>
+    <row r="17" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="28"/>
+      <c r="B17" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="30">
+        <v>150</v>
+      </c>
+      <c r="G17" s="31"/>
+    </row>
+    <row r="18" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="28"/>
+      <c r="B18" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="33">
+        <v>200</v>
+      </c>
+      <c r="G18" s="31"/>
+    </row>
+    <row r="19" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="28"/>
+      <c r="B19" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="35">
+        <v>250</v>
+      </c>
+      <c r="G19" s="23"/>
+    </row>
+    <row r="20" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="38">
+        <v>20</v>
+      </c>
+      <c r="G20" s="23"/>
+    </row>
+    <row r="21" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="40"/>
+      <c r="C21" s="41">
+        <v>10</v>
+      </c>
+      <c r="G21" s="23"/>
+    </row>
+    <row r="22" spans="1:7" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="219" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="219"/>
+      <c r="C22" s="220"/>
+      <c r="G22" s="23"/>
+    </row>
+    <row r="23" spans="1:7" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" s="44"/>
+      <c r="C23" s="45">
+        <v>80</v>
+      </c>
+      <c r="G23" s="42"/>
+    </row>
+    <row r="24" spans="1:7" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="46" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="47"/>
+      <c r="C24" s="48">
+        <v>30</v>
+      </c>
+      <c r="G24" s="42"/>
+    </row>
+    <row r="25" spans="1:7" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="49" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" s="50"/>
+      <c r="C25" s="51">
+        <v>60</v>
+      </c>
+      <c r="G25" s="23"/>
+    </row>
+    <row r="26" spans="1:7" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="52"/>
+      <c r="B26" s="53"/>
+      <c r="C26" s="54"/>
+      <c r="G26" s="42"/>
+    </row>
+    <row r="27" spans="1:7" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="52"/>
+      <c r="B27" s="53"/>
+      <c r="C27" s="54"/>
+      <c r="G27" s="42"/>
+    </row>
+    <row r="28" spans="1:7" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="211" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" s="212"/>
+      <c r="C28" s="213"/>
+      <c r="E28" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G28" s="42"/>
+    </row>
+    <row r="29" spans="1:7" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" s="55"/>
+      <c r="C29" s="27">
+        <v>40</v>
+      </c>
+      <c r="G29" s="42"/>
+    </row>
+    <row r="30" spans="1:7" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="56" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" s="57" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30" s="58">
+        <v>20</v>
+      </c>
+      <c r="G30" s="42"/>
+    </row>
+    <row r="31" spans="1:7" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="59" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31" s="60" t="s">
+        <v>36</v>
+      </c>
+      <c r="C31" s="61">
+        <v>40</v>
+      </c>
+      <c r="G31" s="42"/>
+    </row>
+    <row r="32" spans="1:7" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="62" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" s="63" t="s">
+        <v>20</v>
+      </c>
+      <c r="C32" s="64">
+        <v>50</v>
+      </c>
+      <c r="G32" s="42"/>
+    </row>
+    <row r="33" spans="1:9" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="221" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33" s="65" t="s">
+        <v>25</v>
+      </c>
+      <c r="C33" s="66">
+        <v>50</v>
+      </c>
+      <c r="G33" s="31"/>
+    </row>
+    <row r="34" spans="1:9" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="222"/>
+      <c r="B34" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="36">
-        <v>70</v>
-      </c>
-      <c r="G16" s="33"/>
-    </row>
-    <row r="17" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="37"/>
-      <c r="B17" s="38" t="s">
+      <c r="C34" s="68">
+        <v>60</v>
+      </c>
+      <c r="G34" s="31"/>
+    </row>
+    <row r="35" spans="1:9" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="223" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35" s="69" t="s">
+        <v>40</v>
+      </c>
+      <c r="C35" s="66">
+        <v>30</v>
+      </c>
+      <c r="G35" s="24"/>
+    </row>
+    <row r="36" spans="1:9" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="224"/>
+      <c r="B36" s="60" t="s">
+        <v>19</v>
+      </c>
+      <c r="C36" s="61">
+        <v>50</v>
+      </c>
+      <c r="G36" s="24"/>
+    </row>
+    <row r="37" spans="1:9" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="56" t="s">
+        <v>41</v>
+      </c>
+      <c r="B37" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="C37" s="71">
+        <v>40</v>
+      </c>
+      <c r="G37" s="24"/>
+    </row>
+    <row r="38" spans="1:9" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B38" s="8"/>
+      <c r="C38" s="16">
+        <v>30</v>
+      </c>
+      <c r="D38" s="1"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="72"/>
+      <c r="G38" s="31"/>
+    </row>
+    <row r="39" spans="1:9" ht="16.350000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="73" t="s">
+        <v>42</v>
+      </c>
+      <c r="B39" s="74"/>
+      <c r="C39" s="75">
+        <v>50</v>
+      </c>
+      <c r="G39" s="76"/>
+      <c r="I39" s="2"/>
+    </row>
+    <row r="40" spans="1:9" ht="16.350000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="3"/>
+      <c r="G40" s="76"/>
+      <c r="I40" s="2"/>
+    </row>
+    <row r="41" spans="1:9" ht="16.350000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="3"/>
+      <c r="G41" s="76"/>
+      <c r="I41" s="2"/>
+    </row>
+    <row r="42" spans="1:9" ht="16.350000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="225" t="s">
+        <v>43</v>
+      </c>
+      <c r="B42" s="226"/>
+      <c r="C42" s="227"/>
+      <c r="G42" s="77"/>
+    </row>
+    <row r="43" spans="1:9" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="78" t="s">
+        <v>44</v>
+      </c>
+      <c r="B43" s="79" t="s">
+        <v>115</v>
+      </c>
+      <c r="C43" s="80">
+        <v>280</v>
+      </c>
+      <c r="G43" s="77"/>
+    </row>
+    <row r="44" spans="1:9" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="81" t="s">
+        <v>45</v>
+      </c>
+      <c r="B44" s="82"/>
+      <c r="C44" s="83">
+        <v>120</v>
+      </c>
+      <c r="D44" s="1"/>
+    </row>
+    <row r="45" spans="1:9" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="56" t="s">
+        <v>46</v>
+      </c>
+      <c r="B45" s="84" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="39">
-        <v>110</v>
-      </c>
-      <c r="G17" s="40"/>
-    </row>
-    <row r="18" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="37"/>
-      <c r="B18" s="38" t="s">
+      <c r="C45" s="85">
+        <v>130</v>
+      </c>
+      <c r="D45" s="1"/>
+    </row>
+    <row r="46" spans="1:9" ht="16.350000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="86" t="s">
+        <v>47</v>
+      </c>
+      <c r="B46" s="87" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="39">
-        <v>150</v>
-      </c>
-      <c r="G18" s="40"/>
-    </row>
-    <row r="19" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="37"/>
-      <c r="B19" s="41" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19" s="42">
-        <v>200</v>
-      </c>
-      <c r="G19" s="32"/>
-    </row>
-    <row r="20" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="37"/>
-      <c r="B20" s="43" t="s">
-        <v>23</v>
-      </c>
-      <c r="C20" s="44">
-        <v>250</v>
-      </c>
-      <c r="G20" s="32"/>
-    </row>
-    <row r="21" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="45" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" s="46" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" s="47">
-        <v>20</v>
-      </c>
-      <c r="G21" s="32"/>
-    </row>
-    <row r="22" spans="1:7" s="3" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="48" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22" s="49"/>
-      <c r="C22" s="50">
-        <v>10</v>
-      </c>
-      <c r="G22" s="32"/>
-    </row>
-    <row r="23" spans="1:7" s="3" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="51" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="51"/>
-      <c r="C23" s="52"/>
-      <c r="G23" s="53"/>
-    </row>
-    <row r="24" spans="1:7" s="3" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="54" t="s">
-        <v>28</v>
-      </c>
-      <c r="B24" s="55"/>
-      <c r="C24" s="56">
-        <v>80</v>
-      </c>
-      <c r="G24" s="53"/>
-    </row>
-    <row r="25" spans="1:7" s="3" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="57" t="s">
-        <v>29</v>
-      </c>
-      <c r="B25" s="58"/>
-      <c r="C25" s="59">
-        <v>30</v>
-      </c>
-      <c r="G25" s="32"/>
-    </row>
-    <row r="26" spans="1:7" s="3" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="60" t="s">
-        <v>30</v>
-      </c>
-      <c r="B26" s="61"/>
-      <c r="C26" s="62">
-        <v>60</v>
-      </c>
-      <c r="G26" s="53"/>
-    </row>
-    <row r="27" spans="1:7" s="3" customFormat="1" ht="17.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="63"/>
-      <c r="B27" s="64"/>
-      <c r="C27" s="65"/>
-      <c r="G27" s="53"/>
-    </row>
-    <row r="28" spans="1:7" s="3" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="63"/>
-      <c r="B28" s="64"/>
-      <c r="C28" s="65"/>
-      <c r="G28" s="53"/>
-    </row>
-    <row r="29" spans="1:7" ht="16.350000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B29" s="6"/>
-      <c r="C29" s="7"/>
-      <c r="G29" s="53"/>
-    </row>
-    <row r="30" spans="1:7" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="B30" s="66"/>
-      <c r="C30" s="36">
-        <v>40</v>
-      </c>
-      <c r="G30" s="53"/>
-    </row>
-    <row r="31" spans="1:7" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="67" t="s">
-        <v>33</v>
-      </c>
-      <c r="B31" s="68" t="s">
-        <v>34</v>
-      </c>
-      <c r="C31" s="69">
-        <v>20</v>
-      </c>
-      <c r="G31" s="53"/>
-    </row>
-    <row r="32" spans="1:7" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="70" t="s">
-        <v>35</v>
-      </c>
-      <c r="B32" s="71" t="s">
-        <v>36</v>
-      </c>
-      <c r="C32" s="72">
-        <v>40</v>
-      </c>
-      <c r="G32" s="53"/>
-    </row>
-    <row r="33" spans="1:9" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="73" t="s">
-        <v>37</v>
-      </c>
-      <c r="B33" s="74" t="s">
-        <v>20</v>
-      </c>
-      <c r="C33" s="75">
-        <v>50</v>
-      </c>
-      <c r="G33" s="40"/>
-    </row>
-    <row r="34" spans="1:9" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="B34" s="76" t="s">
-        <v>25</v>
-      </c>
-      <c r="C34" s="77">
-        <v>50</v>
-      </c>
-      <c r="G34" s="40"/>
-    </row>
-    <row r="35" spans="1:9" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="78"/>
-      <c r="B35" s="79" t="s">
-        <v>19</v>
-      </c>
-      <c r="C35" s="80">
-        <v>60</v>
-      </c>
-      <c r="G35" s="33"/>
-    </row>
-    <row r="36" spans="1:9" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="81" t="s">
-        <v>39</v>
-      </c>
-      <c r="B36" s="82" t="s">
-        <v>40</v>
-      </c>
-      <c r="C36" s="77">
-        <v>30</v>
-      </c>
-      <c r="G36" s="33"/>
-    </row>
-    <row r="37" spans="1:9" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="17"/>
-      <c r="B37" s="71" t="s">
-        <v>19</v>
-      </c>
-      <c r="C37" s="72">
-        <v>50</v>
-      </c>
-      <c r="G37" s="33"/>
-    </row>
-    <row r="38" spans="1:9" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="67" t="s">
-        <v>41</v>
-      </c>
-      <c r="B38" s="83" t="s">
-        <v>19</v>
-      </c>
-      <c r="C38" s="84">
-        <v>40</v>
-      </c>
-      <c r="D38" s="1"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="85"/>
-      <c r="G38" s="40"/>
-    </row>
-    <row r="39" spans="1:9" ht="16.350000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="86" t="s">
-        <v>42</v>
-      </c>
-      <c r="B39" s="87"/>
-      <c r="C39" s="88">
-        <v>50</v>
-      </c>
-      <c r="G39" s="89"/>
-      <c r="I39" s="3"/>
-    </row>
-    <row r="40" spans="1:9" ht="16.350000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="4"/>
-      <c r="G40" s="89"/>
-      <c r="I40" s="3"/>
-    </row>
-    <row r="41" spans="1:9" ht="16.350000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="4"/>
-      <c r="G41" s="89"/>
-      <c r="I41" s="3"/>
-    </row>
-    <row r="42" spans="1:9" ht="16.350000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="90" t="s">
-        <v>43</v>
-      </c>
-      <c r="B42" s="91"/>
-      <c r="C42" s="92"/>
-      <c r="G42" s="93"/>
-    </row>
-    <row r="43" spans="1:9" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="94" t="s">
-        <v>44</v>
-      </c>
-      <c r="B43" s="95" t="s">
-        <v>45</v>
-      </c>
-      <c r="C43" s="96">
-        <v>280</v>
-      </c>
-      <c r="G43" s="93"/>
-    </row>
-    <row r="44" spans="1:9" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="97" t="s">
-        <v>46</v>
-      </c>
-      <c r="B44" s="98"/>
-      <c r="C44" s="99">
-        <v>120</v>
-      </c>
-      <c r="D44" s="1"/>
-    </row>
-    <row r="45" spans="1:9" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="67" t="s">
-        <v>47</v>
-      </c>
-      <c r="B45" s="100" t="s">
-        <v>20</v>
-      </c>
-      <c r="C45" s="101">
-        <v>130</v>
-      </c>
-      <c r="D45" s="1"/>
-    </row>
-    <row r="46" spans="1:9" ht="16.350000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="102" t="s">
-        <v>48</v>
-      </c>
-      <c r="B46" s="103" t="s">
-        <v>21</v>
-      </c>
-      <c r="C46" s="104">
+      <c r="C46" s="88">
         <v>170</v>
       </c>
       <c r="D46" s="1"/>
     </row>
     <row r="47" spans="1:9" ht="16.350000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="D47" s="1"/>
-      <c r="E47" s="3"/>
+      <c r="E47" s="2"/>
     </row>
     <row r="48" spans="1:9" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D48" s="1"/>
-      <c r="E48" s="3"/>
-    </row>
-    <row r="49" spans="1:4" ht="16.350000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E48" s="2"/>
+    </row>
+    <row r="49" spans="1:5" ht="16.350000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D49" s="1"/>
     </row>
-    <row r="50" spans="1:4" ht="16.350000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="105" t="s">
+    <row r="50" spans="1:5" ht="16.350000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="89" t="s">
+        <v>48</v>
+      </c>
+      <c r="B50" s="90"/>
+      <c r="C50" s="91"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="92" t="s">
         <v>49</v>
       </c>
-      <c r="B50" s="106"/>
-      <c r="C50" s="107"/>
-      <c r="D50" s="1"/>
-    </row>
-    <row r="51" spans="1:4" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="108" t="s">
+      <c r="B51" s="93"/>
+      <c r="C51" s="94">
+        <v>70</v>
+      </c>
+      <c r="D51" s="1"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" s="92" t="s">
         <v>50</v>
       </c>
-      <c r="B51" s="109"/>
-      <c r="C51" s="110">
-        <v>70</v>
-      </c>
-      <c r="D51" s="1"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" s="108" t="s">
+      <c r="B52" s="95"/>
+      <c r="C52" s="96">
+        <v>30</v>
+      </c>
+      <c r="D52" s="1"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" s="97" t="s">
         <v>51</v>
       </c>
-      <c r="B52" s="111"/>
-      <c r="C52" s="112">
+      <c r="B53" s="98"/>
+      <c r="C53" s="99">
+        <v>140</v>
+      </c>
+      <c r="D53" s="1"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" s="97" t="s">
+        <v>52</v>
+      </c>
+      <c r="B54" s="98"/>
+      <c r="C54" s="100">
+        <v>170</v>
+      </c>
+      <c r="D54" s="1"/>
+    </row>
+    <row r="55" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="101" t="s">
+        <v>53</v>
+      </c>
+      <c r="B55" s="102"/>
+      <c r="C55" s="103">
+        <v>200</v>
+      </c>
+      <c r="D55" s="1"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" s="104" t="s">
+        <v>54</v>
+      </c>
+      <c r="B56" s="105"/>
+      <c r="C56" s="106">
+        <v>120</v>
+      </c>
+      <c r="D56" s="1"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" s="97" t="s">
+        <v>55</v>
+      </c>
+      <c r="B57" s="98"/>
+      <c r="C57" s="100">
+        <v>140</v>
+      </c>
+      <c r="D57" s="1"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" s="228" t="s">
+        <v>56</v>
+      </c>
+      <c r="B58" s="229"/>
+      <c r="C58" s="100">
+        <v>20</v>
+      </c>
+      <c r="D58" s="1"/>
+    </row>
+    <row r="59" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A59" s="97" t="s">
+        <v>57</v>
+      </c>
+      <c r="B59" s="107"/>
+      <c r="C59" s="100">
+        <v>10</v>
+      </c>
+      <c r="D59" s="1"/>
+    </row>
+    <row r="60" spans="1:5" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="101" t="s">
+        <v>58</v>
+      </c>
+      <c r="B60" s="108"/>
+      <c r="C60" s="109">
+        <v>10</v>
+      </c>
+      <c r="D60" s="1"/>
+    </row>
+    <row r="61" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="110" t="s">
+        <v>59</v>
+      </c>
+      <c r="B61" s="111"/>
+      <c r="C61" s="112">
+        <v>80</v>
+      </c>
+      <c r="D61" s="1"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62" s="113" t="s">
+        <v>60</v>
+      </c>
+      <c r="B62" s="114"/>
+      <c r="C62" s="115">
+        <v>50</v>
+      </c>
+      <c r="D62" s="1"/>
+    </row>
+    <row r="63" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="113" t="s">
+        <v>61</v>
+      </c>
+      <c r="B63" s="114"/>
+      <c r="C63" s="116">
         <v>30</v>
       </c>
-      <c r="D52" s="1"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" s="113" t="s">
-        <v>52</v>
-      </c>
-      <c r="B53" s="114"/>
-      <c r="C53" s="115">
-        <v>140</v>
-      </c>
-      <c r="D53" s="1"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54" s="113" t="s">
-        <v>53</v>
-      </c>
-      <c r="B54" s="114"/>
-      <c r="C54" s="116">
-        <v>170</v>
-      </c>
-      <c r="D54" s="1"/>
-    </row>
-    <row r="55" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="117" t="s">
-        <v>54</v>
-      </c>
-      <c r="B55" s="118"/>
-      <c r="C55" s="119">
-        <v>200</v>
-      </c>
-      <c r="D55" s="1"/>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A56" s="120" t="s">
-        <v>55</v>
-      </c>
-      <c r="B56" s="121"/>
-      <c r="C56" s="122">
-        <v>120</v>
-      </c>
-      <c r="D56" s="1"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A57" s="113" t="s">
-        <v>56</v>
-      </c>
-      <c r="B57" s="114"/>
-      <c r="C57" s="116">
-        <v>140</v>
-      </c>
-      <c r="D57" s="1"/>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A58" s="123" t="s">
-        <v>57</v>
-      </c>
-      <c r="B58" s="124"/>
-      <c r="C58" s="116">
-        <v>20</v>
-      </c>
-      <c r="D58" s="1"/>
-    </row>
-    <row r="59" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A59" s="113" t="s">
-        <v>58</v>
-      </c>
-      <c r="B59" s="125"/>
-      <c r="C59" s="116">
-        <v>10</v>
-      </c>
-      <c r="D59" s="1"/>
-    </row>
-    <row r="60" spans="1:4" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="117" t="s">
-        <v>59</v>
-      </c>
-      <c r="B60" s="126"/>
-      <c r="C60" s="127">
-        <v>10</v>
-      </c>
-      <c r="D60" s="1"/>
-    </row>
-    <row r="61" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="128" t="s">
-        <v>60</v>
-      </c>
-      <c r="B61" s="129"/>
-      <c r="C61" s="130">
-        <v>80</v>
-      </c>
-      <c r="D61" s="1"/>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A62" s="131" t="s">
-        <v>61</v>
-      </c>
-      <c r="B62" s="132"/>
-      <c r="C62" s="133">
-        <v>50</v>
-      </c>
-      <c r="D62" s="1"/>
-    </row>
-    <row r="63" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="131" t="s">
-        <v>62</v>
-      </c>
-      <c r="B63" s="132"/>
-      <c r="C63" s="134">
+    </row>
+    <row r="64" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="117" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="135" t="s">
-        <v>30</v>
-      </c>
-      <c r="B64" s="136" t="s">
+      <c r="B64" s="118" t="s">
         <v>40</v>
       </c>
-      <c r="C64" s="137">
+      <c r="C64" s="119">
         <v>30</v>
       </c>
     </row>
     <row r="65" spans="1:13" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.3"/>
     <row r="66" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="67" spans="1:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="138"/>
-      <c r="B67" s="139"/>
-      <c r="C67" s="140"/>
+      <c r="A67" s="120"/>
+      <c r="B67" s="121"/>
+      <c r="C67" s="122"/>
       <c r="D67" s="1"/>
     </row>
     <row r="68" spans="1:13" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="5" t="s">
+      <c r="A68" s="211" t="s">
+        <v>62</v>
+      </c>
+      <c r="B68" s="212"/>
+      <c r="C68" s="213"/>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A69" s="123" t="s">
         <v>63</v>
       </c>
-      <c r="B68" s="6"/>
-      <c r="C68" s="7"/>
-      <c r="D68" s="1"/>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A69" s="141" t="s">
+      <c r="B69" s="124"/>
+      <c r="C69" s="125">
+        <v>80</v>
+      </c>
+      <c r="D69" s="1"/>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A70" s="126" t="s">
         <v>64</v>
       </c>
-      <c r="B69" s="142"/>
-      <c r="C69" s="143">
-        <v>80</v>
-      </c>
-      <c r="D69" s="1"/>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A70" s="144" t="s">
+      <c r="B70" s="127"/>
+      <c r="C70" s="128">
+        <v>100</v>
+      </c>
+      <c r="D70" s="1"/>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A71" s="129" t="s">
         <v>65</v>
       </c>
-      <c r="B70" s="145"/>
-      <c r="C70" s="146">
-        <v>100</v>
-      </c>
-      <c r="D70" s="1"/>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A71" s="147" t="s">
+      <c r="B71" s="130"/>
+      <c r="C71" s="131">
+        <v>130</v>
+      </c>
+      <c r="D71" s="1"/>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A72" s="126" t="s">
         <v>66</v>
       </c>
-      <c r="B71" s="148"/>
-      <c r="C71" s="149">
-        <v>130</v>
-      </c>
-      <c r="D71" s="1"/>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A72" s="144" t="s">
+      <c r="B72" s="127"/>
+      <c r="C72" s="128">
+        <v>190</v>
+      </c>
+      <c r="D72" s="132"/>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A73" s="133" t="s">
         <v>67</v>
       </c>
-      <c r="B72" s="145"/>
-      <c r="C72" s="146">
-        <v>190</v>
-      </c>
-      <c r="D72" s="150"/>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A73" s="151" t="s">
+      <c r="B73" s="134"/>
+      <c r="C73" s="135">
+        <v>50</v>
+      </c>
+      <c r="D73" s="136"/>
+    </row>
+    <row r="74" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="137" t="s">
         <v>68</v>
       </c>
-      <c r="B73" s="152"/>
-      <c r="C73" s="153">
-        <v>50</v>
-      </c>
-      <c r="D73" s="154"/>
-    </row>
-    <row r="74" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="155" t="s">
-        <v>69</v>
-      </c>
-      <c r="B74" s="156"/>
-      <c r="C74" s="157">
+      <c r="B74" s="138"/>
+      <c r="C74" s="139">
         <v>50</v>
       </c>
       <c r="E74" s="1"/>
@@ -4058,12 +4055,12 @@
       <c r="L74" s="1"/>
       <c r="M74" s="1"/>
     </row>
-    <row r="75" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="158" t="s">
-        <v>70</v>
-      </c>
-      <c r="B75" s="159"/>
-      <c r="C75" s="27">
+    <row r="75" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="140" t="s">
+        <v>69</v>
+      </c>
+      <c r="B75" s="141"/>
+      <c r="C75" s="19">
         <v>50</v>
       </c>
       <c r="E75" s="1"/>
@@ -4076,12 +4073,12 @@
       <c r="L75" s="1"/>
       <c r="M75" s="1"/>
     </row>
-    <row r="76" spans="1:13" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A76" s="28" t="s">
-        <v>71</v>
-      </c>
-      <c r="B76" s="160"/>
-      <c r="C76" s="161">
+    <row r="76" spans="1:13" s="2" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A76" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="B76" s="142"/>
+      <c r="C76" s="143">
         <v>30</v>
       </c>
       <c r="E76" s="1"/>
@@ -4094,12 +4091,12 @@
       <c r="L76" s="1"/>
       <c r="M76" s="1"/>
     </row>
-    <row r="77" spans="1:13" s="3" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="162" t="s">
-        <v>72</v>
-      </c>
-      <c r="B77" s="163"/>
-      <c r="C77" s="164">
+    <row r="77" spans="1:13" s="2" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A77" s="144" t="s">
+        <v>71</v>
+      </c>
+      <c r="B77" s="145"/>
+      <c r="C77" s="146">
         <v>200</v>
       </c>
       <c r="E77" s="1"/>
@@ -4112,9 +4109,9 @@
       <c r="L77" s="1"/>
       <c r="M77" s="1"/>
     </row>
-    <row r="78" spans="1:13" s="3" customFormat="1" ht="14.4" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:13" s="2" customFormat="1" ht="14.4" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A78" s="1"/>
-      <c r="B78" s="4"/>
+      <c r="B78" s="3"/>
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
       <c r="G78" s="1"/>
@@ -4125,9 +4122,9 @@
       <c r="L78" s="1"/>
       <c r="M78" s="1"/>
     </row>
-    <row r="79" spans="1:13" s="3" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:13" s="2" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="1"/>
-      <c r="B79" s="4"/>
+      <c r="B79" s="3"/>
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
       <c r="G79" s="1"/>
@@ -4138,13 +4135,15 @@
       <c r="L79" s="1"/>
       <c r="M79" s="1"/>
     </row>
-    <row r="80" spans="1:13" s="3" customFormat="1" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A80" s="165" t="s">
-        <v>73</v>
-      </c>
-      <c r="B80" s="166"/>
-      <c r="C80" s="167"/>
-      <c r="E80" s="1"/>
+    <row r="80" spans="1:13" s="2" customFormat="1" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A80" s="214" t="s">
+        <v>72</v>
+      </c>
+      <c r="B80" s="215"/>
+      <c r="C80" s="216"/>
+      <c r="E80" s="1" t="s">
+        <v>116</v>
+      </c>
       <c r="F80" s="1"/>
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
@@ -4154,12 +4153,12 @@
       <c r="L80" s="1"/>
       <c r="M80" s="1"/>
     </row>
-    <row r="81" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="168" t="s">
-        <v>74</v>
-      </c>
-      <c r="B81" s="169"/>
-      <c r="C81" s="170">
+    <row r="81" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="147" t="s">
+        <v>73</v>
+      </c>
+      <c r="B81" s="148"/>
+      <c r="C81" s="149">
         <v>200</v>
       </c>
       <c r="E81" s="1"/>
@@ -4172,12 +4171,12 @@
       <c r="L81" s="1"/>
       <c r="M81" s="1"/>
     </row>
-    <row r="82" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="171" t="s">
-        <v>75</v>
-      </c>
-      <c r="B82" s="172"/>
-      <c r="C82" s="173">
+    <row r="82" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="150" t="s">
+        <v>74</v>
+      </c>
+      <c r="B82" s="151"/>
+      <c r="C82" s="152">
         <v>100</v>
       </c>
       <c r="E82" s="1"/>
@@ -4190,14 +4189,14 @@
       <c r="L82" s="1"/>
       <c r="M82" s="1"/>
     </row>
-    <row r="83" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="171" t="s">
-        <v>76</v>
-      </c>
-      <c r="B83" s="172" t="s">
+    <row r="83" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="150" t="s">
+        <v>75</v>
+      </c>
+      <c r="B83" s="151" t="s">
         <v>19</v>
       </c>
-      <c r="C83" s="173">
+      <c r="C83" s="152">
         <v>50</v>
       </c>
       <c r="E83" s="1"/>
@@ -4210,12 +4209,12 @@
       <c r="L83" s="1"/>
       <c r="M83" s="1"/>
     </row>
-    <row r="84" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="174" t="s">
-        <v>77</v>
-      </c>
-      <c r="B84" s="175"/>
-      <c r="C84" s="176">
+    <row r="84" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="153" t="s">
+        <v>76</v>
+      </c>
+      <c r="B84" s="154"/>
+      <c r="C84" s="155">
         <v>150</v>
       </c>
       <c r="E84" s="1"/>
@@ -4228,12 +4227,12 @@
       <c r="L84" s="1"/>
       <c r="M84" s="1"/>
     </row>
-    <row r="85" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="177" t="s">
-        <v>78</v>
-      </c>
-      <c r="B85" s="178"/>
-      <c r="C85" s="179">
+    <row r="85" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="156" t="s">
+        <v>77</v>
+      </c>
+      <c r="B85" s="157"/>
+      <c r="C85" s="158">
         <v>30</v>
       </c>
       <c r="E85" s="1"/>
@@ -4246,12 +4245,12 @@
       <c r="L85" s="1"/>
       <c r="M85" s="1"/>
     </row>
-    <row r="86" spans="1:13" s="3" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A86" s="180" t="s">
-        <v>79</v>
-      </c>
-      <c r="B86" s="181"/>
-      <c r="C86" s="182">
+    <row r="86" spans="1:13" s="2" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A86" s="159" t="s">
+        <v>78</v>
+      </c>
+      <c r="B86" s="160"/>
+      <c r="C86" s="161">
         <v>150</v>
       </c>
       <c r="E86" s="1"/>
@@ -4264,12 +4263,12 @@
       <c r="L86" s="1"/>
       <c r="M86" s="1"/>
     </row>
-    <row r="87" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="183" t="s">
-        <v>80</v>
-      </c>
-      <c r="B87" s="184"/>
-      <c r="C87" s="170"/>
+    <row r="87" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="194" t="s">
+        <v>79</v>
+      </c>
+      <c r="B87" s="195"/>
+      <c r="C87" s="149"/>
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
       <c r="G87" s="1"/>
@@ -4280,12 +4279,12 @@
       <c r="L87" s="1"/>
       <c r="M87" s="1"/>
     </row>
-    <row r="88" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="185" t="s">
-        <v>81</v>
-      </c>
-      <c r="B88" s="186"/>
-      <c r="C88" s="173">
+    <row r="88" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="196" t="s">
+        <v>80</v>
+      </c>
+      <c r="B88" s="197"/>
+      <c r="C88" s="152">
         <v>200</v>
       </c>
       <c r="E88" s="1"/>
@@ -4298,12 +4297,12 @@
       <c r="L88" s="1"/>
       <c r="M88" s="1"/>
     </row>
-    <row r="89" spans="1:13" s="3" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A89" s="187" t="s">
-        <v>82</v>
-      </c>
-      <c r="B89" s="188"/>
-      <c r="C89" s="176">
+    <row r="89" spans="1:13" s="2" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A89" s="217" t="s">
+        <v>81</v>
+      </c>
+      <c r="B89" s="218"/>
+      <c r="C89" s="155">
         <v>150</v>
       </c>
       <c r="E89" s="1"/>
@@ -4316,12 +4315,12 @@
       <c r="L89" s="1"/>
       <c r="M89" s="1"/>
     </row>
-    <row r="90" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="183" t="s">
-        <v>83</v>
-      </c>
-      <c r="B90" s="184"/>
-      <c r="C90" s="170"/>
+    <row r="90" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="194" t="s">
+        <v>82</v>
+      </c>
+      <c r="B90" s="195"/>
+      <c r="C90" s="149"/>
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
       <c r="G90" s="1"/>
@@ -4332,15 +4331,15 @@
       <c r="L90" s="1"/>
       <c r="M90" s="1"/>
     </row>
-    <row r="91" spans="1:13" s="189" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="185" t="s">
-        <v>84</v>
-      </c>
-      <c r="B91" s="186"/>
-      <c r="C91" s="173">
+    <row r="91" spans="1:13" s="162" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="196" t="s">
+        <v>83</v>
+      </c>
+      <c r="B91" s="197"/>
+      <c r="C91" s="152">
         <v>150</v>
       </c>
-      <c r="D91" s="3"/>
+      <c r="D91" s="2"/>
       <c r="E91" s="1"/>
       <c r="F91" s="1"/>
       <c r="G91" s="1"/>
@@ -4351,15 +4350,15 @@
       <c r="L91" s="1"/>
       <c r="M91" s="1"/>
     </row>
-    <row r="92" spans="1:13" s="189" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A92" s="190" t="s">
-        <v>85</v>
-      </c>
-      <c r="B92" s="191"/>
-      <c r="C92" s="192">
+    <row r="92" spans="1:13" s="162" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A92" s="205" t="s">
+        <v>84</v>
+      </c>
+      <c r="B92" s="206"/>
+      <c r="C92" s="163">
         <v>120</v>
       </c>
-      <c r="D92" s="3"/>
+      <c r="D92" s="2"/>
       <c r="E92" s="1"/>
       <c r="F92" s="1"/>
       <c r="G92" s="1"/>
@@ -4370,15 +4369,15 @@
       <c r="L92" s="1"/>
       <c r="M92" s="1"/>
     </row>
-    <row r="93" spans="1:13" s="189" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="193" t="s">
-        <v>86</v>
-      </c>
-      <c r="B93" s="194"/>
-      <c r="C93" s="195">
+    <row r="93" spans="1:13" s="162" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="207" t="s">
+        <v>85</v>
+      </c>
+      <c r="B93" s="208"/>
+      <c r="C93" s="164">
         <v>300</v>
       </c>
-      <c r="D93" s="3"/>
+      <c r="D93" s="2"/>
       <c r="E93" s="1"/>
       <c r="F93" s="1"/>
       <c r="G93" s="1"/>
@@ -4389,15 +4388,15 @@
       <c r="L93" s="1"/>
       <c r="M93" s="1"/>
     </row>
-    <row r="94" spans="1:13" s="189" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A94" s="190" t="s">
-        <v>87</v>
-      </c>
-      <c r="B94" s="191"/>
-      <c r="C94" s="192">
+    <row r="94" spans="1:13" s="162" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A94" s="205" t="s">
+        <v>86</v>
+      </c>
+      <c r="B94" s="206"/>
+      <c r="C94" s="163">
         <v>50</v>
       </c>
-      <c r="D94" s="3"/>
+      <c r="D94" s="2"/>
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
       <c r="G94" s="1"/>
@@ -4408,15 +4407,15 @@
       <c r="L94" s="1"/>
       <c r="M94" s="1"/>
     </row>
-    <row r="95" spans="1:13" s="189" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="193" t="s">
-        <v>88</v>
-      </c>
-      <c r="B95" s="194"/>
-      <c r="C95" s="195">
+    <row r="95" spans="1:13" s="162" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="207" t="s">
+        <v>87</v>
+      </c>
+      <c r="B95" s="208"/>
+      <c r="C95" s="164">
         <v>200</v>
       </c>
-      <c r="D95" s="3"/>
+      <c r="D95" s="2"/>
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
       <c r="G95" s="1"/>
@@ -4427,15 +4426,15 @@
       <c r="L95" s="1"/>
       <c r="M95" s="1"/>
     </row>
-    <row r="96" spans="1:13" s="189" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="196" t="s">
-        <v>89</v>
-      </c>
-      <c r="B96" s="197"/>
-      <c r="C96" s="198">
+    <row r="96" spans="1:13" s="162" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="209" t="s">
+        <v>88</v>
+      </c>
+      <c r="B96" s="210"/>
+      <c r="C96" s="165">
         <v>50</v>
       </c>
-      <c r="D96" s="3"/>
+      <c r="D96" s="2"/>
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
       <c r="G96" s="1"/>
@@ -4446,15 +4445,15 @@
       <c r="L96" s="1"/>
       <c r="M96" s="1"/>
     </row>
-    <row r="97" spans="1:13" s="189" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A97" s="199" t="s">
-        <v>90</v>
-      </c>
-      <c r="B97" s="200"/>
-      <c r="C97" s="192">
+    <row r="97" spans="1:13" s="162" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A97" s="166" t="s">
+        <v>89</v>
+      </c>
+      <c r="B97" s="167"/>
+      <c r="C97" s="163">
         <v>30</v>
       </c>
-      <c r="D97" s="3"/>
+      <c r="D97" s="2"/>
       <c r="E97" s="1"/>
       <c r="F97" s="1"/>
       <c r="G97" s="1"/>
@@ -4465,15 +4464,15 @@
       <c r="L97" s="1"/>
       <c r="M97" s="1"/>
     </row>
-    <row r="98" spans="1:13" s="189" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="183" t="s">
-        <v>91</v>
-      </c>
-      <c r="B98" s="184"/>
-      <c r="C98" s="195">
+    <row r="98" spans="1:13" s="162" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="194" t="s">
+        <v>90</v>
+      </c>
+      <c r="B98" s="195"/>
+      <c r="C98" s="164">
         <v>250</v>
       </c>
-      <c r="D98" s="3"/>
+      <c r="D98" s="2"/>
       <c r="E98" s="1"/>
       <c r="F98" s="1"/>
       <c r="G98" s="1"/>
@@ -4484,15 +4483,15 @@
       <c r="L98" s="1"/>
       <c r="M98" s="1"/>
     </row>
-    <row r="99" spans="1:13" s="189" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="185" t="s">
-        <v>92</v>
-      </c>
-      <c r="B99" s="186"/>
-      <c r="C99" s="198">
+    <row r="99" spans="1:13" s="162" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="196" t="s">
+        <v>91</v>
+      </c>
+      <c r="B99" s="197"/>
+      <c r="C99" s="165">
         <v>150</v>
       </c>
-      <c r="D99" s="3"/>
+      <c r="D99" s="2"/>
       <c r="E99" s="1"/>
       <c r="F99" s="1"/>
       <c r="G99" s="1"/>
@@ -4503,15 +4502,15 @@
       <c r="L99" s="1"/>
       <c r="M99" s="1"/>
     </row>
-    <row r="100" spans="1:13" s="189" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="185" t="s">
-        <v>93</v>
-      </c>
-      <c r="B100" s="186"/>
-      <c r="C100" s="198">
+    <row r="100" spans="1:13" s="162" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="196" t="s">
+        <v>92</v>
+      </c>
+      <c r="B100" s="197"/>
+      <c r="C100" s="165">
         <v>200</v>
       </c>
-      <c r="D100" s="3"/>
+      <c r="D100" s="2"/>
       <c r="E100" s="1"/>
       <c r="F100" s="1"/>
       <c r="G100" s="1"/>
@@ -4522,15 +4521,15 @@
       <c r="L100" s="1"/>
       <c r="M100" s="1"/>
     </row>
-    <row r="101" spans="1:13" s="189" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A101" s="201" t="s">
+    <row r="101" spans="1:13" s="162" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A101" s="198" t="s">
+        <v>93</v>
+      </c>
+      <c r="B101" s="199"/>
+      <c r="C101" s="168" t="s">
         <v>94</v>
       </c>
-      <c r="B101" s="202"/>
-      <c r="C101" s="203" t="s">
-        <v>95</v>
-      </c>
-      <c r="D101" s="3"/>
+      <c r="D101" s="2"/>
       <c r="E101" s="1"/>
       <c r="F101" s="1"/>
       <c r="G101" s="1"/>
@@ -4541,11 +4540,11 @@
       <c r="L101" s="1"/>
       <c r="M101" s="1"/>
     </row>
-    <row r="102" spans="1:13" s="189" customFormat="1" ht="14.4" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="181"/>
-      <c r="B102" s="181"/>
-      <c r="C102" s="204"/>
-      <c r="D102" s="3"/>
+    <row r="102" spans="1:13" s="162" customFormat="1" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A102" s="160"/>
+      <c r="B102" s="160"/>
+      <c r="C102" s="169"/>
+      <c r="D102" s="2"/>
       <c r="E102" s="1"/>
       <c r="F102" s="1"/>
       <c r="G102" s="1"/>
@@ -4556,12 +4555,16 @@
       <c r="L102" s="1"/>
       <c r="M102" s="1"/>
     </row>
-    <row r="103" spans="1:13" s="189" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="181"/>
-      <c r="B103" s="181"/>
-      <c r="C103" s="204"/>
-      <c r="D103" s="3"/>
-      <c r="E103" s="1"/>
+    <row r="103" spans="1:13" s="162" customFormat="1" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A103" s="200" t="s">
+        <v>95</v>
+      </c>
+      <c r="B103" s="201"/>
+      <c r="C103" s="202"/>
+      <c r="D103" s="2"/>
+      <c r="E103" s="1" t="s">
+        <v>116</v>
+      </c>
       <c r="F103" s="1"/>
       <c r="G103" s="1"/>
       <c r="H103" s="1"/>
@@ -4571,11 +4574,15 @@
       <c r="L103" s="1"/>
       <c r="M103" s="1"/>
     </row>
-    <row r="104" spans="1:13" s="189" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="181"/>
-      <c r="B104" s="181"/>
+    <row r="104" spans="1:13" s="162" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="170" t="s">
+        <v>96</v>
+      </c>
+      <c r="B104" s="203">
+        <v>80</v>
+      </c>
       <c r="C104" s="204"/>
-      <c r="D104" s="3"/>
+      <c r="D104" s="2"/>
       <c r="E104" s="1"/>
       <c r="F104" s="1"/>
       <c r="G104" s="1"/>
@@ -4586,11 +4593,15 @@
       <c r="L104" s="1"/>
       <c r="M104" s="1"/>
     </row>
-    <row r="105" spans="1:13" s="189" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="1"/>
-      <c r="B105" s="4"/>
-      <c r="C105" s="3"/>
-      <c r="D105" s="3"/>
+    <row r="105" spans="1:13" s="162" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="171" t="s">
+        <v>97</v>
+      </c>
+      <c r="B105" s="188">
+        <v>40</v>
+      </c>
+      <c r="C105" s="189"/>
+      <c r="D105" s="2"/>
       <c r="E105" s="1"/>
       <c r="F105" s="1"/>
       <c r="G105" s="1"/>
@@ -4601,11 +4612,15 @@
       <c r="L105" s="1"/>
       <c r="M105" s="1"/>
     </row>
-    <row r="106" spans="1:13" s="189" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A106" s="1"/>
-      <c r="B106" s="4"/>
-      <c r="C106" s="3"/>
-      <c r="D106" s="3"/>
+    <row r="106" spans="1:13" s="162" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A106" s="172" t="s">
+        <v>98</v>
+      </c>
+      <c r="B106" s="190">
+        <v>40</v>
+      </c>
+      <c r="C106" s="191"/>
+      <c r="D106" s="2"/>
       <c r="E106" s="1"/>
       <c r="F106" s="1"/>
       <c r="G106" s="1"/>
@@ -4616,13 +4631,11 @@
       <c r="L106" s="1"/>
       <c r="M106" s="1"/>
     </row>
-    <row r="107" spans="1:13" s="189" customFormat="1" ht="13.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A107" s="205" t="s">
-        <v>96</v>
-      </c>
-      <c r="B107" s="206"/>
-      <c r="C107" s="207"/>
-      <c r="D107" s="3"/>
+    <row r="107" spans="1:13" s="162" customFormat="1" ht="13.8" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="1"/>
+      <c r="B107" s="3"/>
+      <c r="C107" s="2"/>
+      <c r="D107" s="2"/>
       <c r="E107" s="1"/>
       <c r="F107" s="1"/>
       <c r="G107" s="1"/>
@@ -4633,15 +4646,11 @@
       <c r="L107" s="1"/>
       <c r="M107" s="1"/>
     </row>
-    <row r="108" spans="1:13" s="189" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="208" t="s">
-        <v>97</v>
-      </c>
-      <c r="B108" s="209">
-        <v>80</v>
-      </c>
-      <c r="C108" s="210"/>
-      <c r="D108" s="3"/>
+    <row r="108" spans="1:13" s="162" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A108" s="1"/>
+      <c r="B108" s="3"/>
+      <c r="C108" s="2"/>
+      <c r="D108" s="2"/>
       <c r="E108" s="1"/>
       <c r="F108" s="1"/>
       <c r="G108" s="1"/>
@@ -4652,16 +4661,20 @@
       <c r="L108" s="1"/>
       <c r="M108" s="1"/>
     </row>
-    <row r="109" spans="1:13" s="189" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="211" t="s">
-        <v>98</v>
-      </c>
-      <c r="B109" s="212">
-        <v>40</v>
-      </c>
-      <c r="C109" s="213"/>
-      <c r="D109" s="3"/>
-      <c r="E109" s="1"/>
+    <row r="109" spans="1:13" s="162" customFormat="1" ht="13.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A109" s="89" t="s">
+        <v>99</v>
+      </c>
+      <c r="B109" s="173" t="s">
+        <v>100</v>
+      </c>
+      <c r="C109" s="174" t="s">
+        <v>101</v>
+      </c>
+      <c r="D109" s="2"/>
+      <c r="E109" s="1" t="s">
+        <v>116</v>
+      </c>
       <c r="F109" s="1"/>
       <c r="G109" s="1"/>
       <c r="H109" s="1"/>
@@ -4671,15 +4684,17 @@
       <c r="L109" s="1"/>
       <c r="M109" s="1"/>
     </row>
-    <row r="110" spans="1:13" s="189" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A110" s="214" t="s">
-        <v>99</v>
-      </c>
-      <c r="B110" s="215">
-        <v>40</v>
-      </c>
-      <c r="C110" s="216"/>
-      <c r="D110" s="3"/>
+    <row r="110" spans="1:13" s="162" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="175" t="s">
+        <v>102</v>
+      </c>
+      <c r="B110" s="176">
+        <v>60</v>
+      </c>
+      <c r="C110" s="177">
+        <v>90</v>
+      </c>
+      <c r="D110" s="2"/>
       <c r="E110" s="1"/>
       <c r="F110" s="1"/>
       <c r="G110" s="1"/>
@@ -4690,12 +4705,28 @@
       <c r="L110" s="1"/>
       <c r="M110" s="1"/>
     </row>
-    <row r="111" spans="1:13" ht="14.4" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="112" spans="1:13" s="189" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A112" s="1"/>
-      <c r="B112" s="4"/>
-      <c r="C112" s="3"/>
-      <c r="D112" s="3"/>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A111" s="178" t="s">
+        <v>103</v>
+      </c>
+      <c r="B111" s="179">
+        <v>90</v>
+      </c>
+      <c r="C111" s="180">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" s="162" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="178" t="s">
+        <v>104</v>
+      </c>
+      <c r="B112" s="179">
+        <v>50</v>
+      </c>
+      <c r="C112" s="180">
+        <v>80</v>
+      </c>
+      <c r="D112" s="2"/>
       <c r="E112" s="1"/>
       <c r="F112" s="1"/>
       <c r="G112" s="1"/>
@@ -4706,17 +4737,17 @@
       <c r="L112" s="1"/>
       <c r="M112" s="1"/>
     </row>
-    <row r="113" spans="1:13" s="189" customFormat="1" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A113" s="105" t="s">
-        <v>100</v>
-      </c>
-      <c r="B113" s="217" t="s">
-        <v>101</v>
-      </c>
-      <c r="C113" s="218" t="s">
-        <v>102</v>
-      </c>
-      <c r="D113" s="3"/>
+    <row r="113" spans="1:13" s="162" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="B113" s="181">
+        <v>30</v>
+      </c>
+      <c r="C113" s="180">
+        <v>40</v>
+      </c>
+      <c r="D113" s="2"/>
       <c r="E113" s="1"/>
       <c r="F113" s="1"/>
       <c r="G113" s="1"/>
@@ -4727,17 +4758,17 @@
       <c r="L113" s="1"/>
       <c r="M113" s="1"/>
     </row>
-    <row r="114" spans="1:13" s="189" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="219" t="s">
-        <v>103</v>
-      </c>
-      <c r="B114" s="220">
-        <v>60</v>
-      </c>
-      <c r="C114" s="221">
-        <v>90</v>
-      </c>
-      <c r="D114" s="3"/>
+    <row r="114" spans="1:13" s="162" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="B114" s="181">
+        <v>30</v>
+      </c>
+      <c r="C114" s="180">
+        <v>50</v>
+      </c>
+      <c r="D114" s="2"/>
       <c r="E114" s="1"/>
       <c r="F114" s="1"/>
       <c r="G114" s="1"/>
@@ -4748,17 +4779,17 @@
       <c r="L114" s="1"/>
       <c r="M114" s="1"/>
     </row>
-    <row r="115" spans="1:13" s="189" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="222" t="s">
-        <v>104</v>
-      </c>
-      <c r="B115" s="223">
-        <v>90</v>
-      </c>
-      <c r="C115" s="224">
-        <v>200</v>
-      </c>
-      <c r="D115" s="3"/>
+    <row r="115" spans="1:13" s="162" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="178" t="s">
+        <v>107</v>
+      </c>
+      <c r="B115" s="181">
+        <v>20</v>
+      </c>
+      <c r="C115" s="180">
+        <v>30</v>
+      </c>
+      <c r="D115" s="2"/>
       <c r="E115" s="1"/>
       <c r="F115" s="1"/>
       <c r="G115" s="1"/>
@@ -4769,17 +4800,17 @@
       <c r="L115" s="1"/>
       <c r="M115" s="1"/>
     </row>
-    <row r="116" spans="1:13" s="189" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="222" t="s">
-        <v>105</v>
-      </c>
-      <c r="B116" s="223">
+    <row r="116" spans="1:13" s="162" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="178" t="s">
+        <v>108</v>
+      </c>
+      <c r="B116" s="181">
+        <v>30</v>
+      </c>
+      <c r="C116" s="180">
         <v>50</v>
       </c>
-      <c r="C116" s="224">
-        <v>80</v>
-      </c>
-      <c r="D116" s="3"/>
+      <c r="D116" s="2"/>
       <c r="E116" s="1"/>
       <c r="F116" s="1"/>
       <c r="G116" s="1"/>
@@ -4790,17 +4821,17 @@
       <c r="L116" s="1"/>
       <c r="M116" s="1"/>
     </row>
-    <row r="117" spans="1:13" s="189" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="25" t="s">
-        <v>106</v>
-      </c>
-      <c r="B117" s="225">
-        <v>30</v>
-      </c>
-      <c r="C117" s="224">
-        <v>40</v>
-      </c>
-      <c r="D117" s="3"/>
+    <row r="117" spans="1:13" s="162" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="178" t="s">
+        <v>109</v>
+      </c>
+      <c r="B117" s="181">
+        <v>70</v>
+      </c>
+      <c r="C117" s="182" t="s">
+        <v>110</v>
+      </c>
+      <c r="D117" s="2"/>
       <c r="E117" s="1"/>
       <c r="F117" s="1"/>
       <c r="G117" s="1"/>
@@ -4811,17 +4842,17 @@
       <c r="L117" s="1"/>
       <c r="M117" s="1"/>
     </row>
-    <row r="118" spans="1:13" s="189" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="25" t="s">
-        <v>107</v>
-      </c>
-      <c r="B118" s="225">
-        <v>30</v>
-      </c>
-      <c r="C118" s="224">
+    <row r="118" spans="1:13" s="162" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="178" t="s">
+        <v>111</v>
+      </c>
+      <c r="B118" s="183" t="s">
+        <v>110</v>
+      </c>
+      <c r="C118" s="180">
         <v>50</v>
       </c>
-      <c r="D118" s="3"/>
+      <c r="D118" s="2"/>
       <c r="E118" s="1"/>
       <c r="F118" s="1"/>
       <c r="G118" s="1"/>
@@ -4832,17 +4863,17 @@
       <c r="L118" s="1"/>
       <c r="M118" s="1"/>
     </row>
-    <row r="119" spans="1:13" s="189" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="222" t="s">
-        <v>108</v>
-      </c>
-      <c r="B119" s="225">
-        <v>20</v>
-      </c>
-      <c r="C119" s="224">
-        <v>30</v>
-      </c>
-      <c r="D119" s="3"/>
+    <row r="119" spans="1:13" s="162" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="178" t="s">
+        <v>112</v>
+      </c>
+      <c r="B119" s="179">
+        <v>50</v>
+      </c>
+      <c r="C119" s="180">
+        <v>70</v>
+      </c>
+      <c r="D119" s="2"/>
       <c r="E119" s="1"/>
       <c r="F119" s="1"/>
       <c r="G119" s="1"/>
@@ -4853,17 +4884,17 @@
       <c r="L119" s="1"/>
       <c r="M119" s="1"/>
     </row>
-    <row r="120" spans="1:13" s="189" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="222" t="s">
-        <v>109</v>
-      </c>
-      <c r="B120" s="225">
-        <v>30</v>
-      </c>
-      <c r="C120" s="224">
-        <v>50</v>
-      </c>
-      <c r="D120" s="3"/>
+    <row r="120" spans="1:13" s="162" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="184" t="s">
+        <v>113</v>
+      </c>
+      <c r="B120" s="185" t="s">
+        <v>110</v>
+      </c>
+      <c r="C120" s="186">
+        <v>10</v>
+      </c>
+      <c r="D120" s="2"/>
       <c r="E120" s="1"/>
       <c r="F120" s="1"/>
       <c r="G120" s="1"/>
@@ -4874,17 +4905,15 @@
       <c r="L120" s="1"/>
       <c r="M120" s="1"/>
     </row>
-    <row r="121" spans="1:13" s="189" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="222" t="s">
-        <v>110</v>
-      </c>
-      <c r="B121" s="225">
-        <v>70</v>
-      </c>
-      <c r="C121" s="226" t="s">
-        <v>111</v>
-      </c>
-      <c r="D121" s="3"/>
+    <row r="121" spans="1:13" s="162" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A121" s="187" t="s">
+        <v>114</v>
+      </c>
+      <c r="B121" s="192">
+        <v>30</v>
+      </c>
+      <c r="C121" s="193"/>
+      <c r="D121" s="2"/>
       <c r="E121" s="1"/>
       <c r="F121" s="1"/>
       <c r="G121" s="1"/>
@@ -4895,17 +4924,11 @@
       <c r="L121" s="1"/>
       <c r="M121" s="1"/>
     </row>
-    <row r="122" spans="1:13" s="189" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="222" t="s">
-        <v>112</v>
-      </c>
-      <c r="B122" s="227" t="s">
-        <v>111</v>
-      </c>
-      <c r="C122" s="224">
-        <v>50</v>
-      </c>
-      <c r="D122" s="3"/>
+    <row r="122" spans="1:13" s="162" customFormat="1" ht="14.4" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="1"/>
+      <c r="B122" s="3"/>
+      <c r="C122" s="2"/>
+      <c r="D122" s="2"/>
       <c r="E122" s="1"/>
       <c r="F122" s="1"/>
       <c r="G122" s="1"/>
@@ -4916,17 +4939,11 @@
       <c r="L122" s="1"/>
       <c r="M122" s="1"/>
     </row>
-    <row r="123" spans="1:13" s="189" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="222" t="s">
-        <v>113</v>
-      </c>
-      <c r="B123" s="223">
-        <v>50</v>
-      </c>
-      <c r="C123" s="224">
-        <v>70</v>
-      </c>
-      <c r="D123" s="3"/>
+    <row r="123" spans="1:13" s="162" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="1"/>
+      <c r="B123" s="3"/>
+      <c r="C123" s="2"/>
+      <c r="D123" s="2"/>
       <c r="E123" s="1"/>
       <c r="F123" s="1"/>
       <c r="G123" s="1"/>
@@ -4937,17 +4954,11 @@
       <c r="L123" s="1"/>
       <c r="M123" s="1"/>
     </row>
-    <row r="124" spans="1:13" s="189" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="228" t="s">
-        <v>114</v>
-      </c>
-      <c r="B124" s="229" t="s">
-        <v>111</v>
-      </c>
-      <c r="C124" s="230">
-        <v>10</v>
-      </c>
-      <c r="D124" s="3"/>
+    <row r="124" spans="1:13" s="162" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A124" s="1"/>
+      <c r="B124" s="3"/>
+      <c r="C124" s="2"/>
+      <c r="D124" s="2"/>
       <c r="E124" s="1"/>
       <c r="F124" s="1"/>
       <c r="G124" s="1"/>
@@ -4958,15 +4969,11 @@
       <c r="L124" s="1"/>
       <c r="M124" s="1"/>
     </row>
-    <row r="125" spans="1:13" s="189" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A125" s="231" t="s">
-        <v>115</v>
-      </c>
-      <c r="B125" s="232">
-        <v>30</v>
-      </c>
-      <c r="C125" s="233"/>
-      <c r="D125" s="3"/>
+    <row r="125" spans="1:13" s="162" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A125" s="1"/>
+      <c r="B125" s="3"/>
+      <c r="C125" s="2"/>
+      <c r="D125" s="2"/>
       <c r="E125" s="1"/>
       <c r="F125" s="1"/>
       <c r="G125" s="1"/>
@@ -4977,11 +4984,11 @@
       <c r="L125" s="1"/>
       <c r="M125" s="1"/>
     </row>
-    <row r="126" spans="1:13" s="189" customFormat="1" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:13" s="162" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A126" s="1"/>
-      <c r="B126" s="4"/>
-      <c r="C126" s="3"/>
-      <c r="D126" s="3"/>
+      <c r="B126" s="3"/>
+      <c r="C126" s="2"/>
+      <c r="D126" s="2"/>
       <c r="E126" s="1"/>
       <c r="F126" s="1"/>
       <c r="G126" s="1"/>
@@ -4992,232 +4999,20 @@
       <c r="L126" s="1"/>
       <c r="M126" s="1"/>
     </row>
-    <row r="127" spans="1:13" s="189" customFormat="1" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A127" s="105" t="s">
-        <v>100</v>
-      </c>
-      <c r="B127" s="218" t="s">
-        <v>102</v>
-      </c>
-      <c r="C127" s="3"/>
-      <c r="D127" s="3"/>
-      <c r="E127" s="1"/>
-      <c r="F127" s="1"/>
-      <c r="G127" s="1"/>
-      <c r="H127" s="1"/>
-      <c r="I127" s="1"/>
-      <c r="J127" s="1"/>
-      <c r="K127" s="1"/>
-      <c r="L127" s="1"/>
-      <c r="M127" s="1"/>
-    </row>
-    <row r="128" spans="1:13" s="189" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="219" t="s">
-        <v>103</v>
-      </c>
-      <c r="B128" s="221">
-        <v>90</v>
-      </c>
-      <c r="C128" s="3"/>
-      <c r="D128" s="3"/>
-      <c r="E128" s="1"/>
-      <c r="F128" s="1"/>
-      <c r="G128" s="1"/>
-      <c r="H128" s="1"/>
-      <c r="I128" s="1"/>
-      <c r="J128" s="1"/>
-      <c r="K128" s="1"/>
-      <c r="L128" s="1"/>
-      <c r="M128" s="1"/>
-    </row>
-    <row r="129" spans="1:13" s="189" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="222" t="s">
-        <v>104</v>
-      </c>
-      <c r="B129" s="224">
-        <v>200</v>
-      </c>
-      <c r="C129" s="3"/>
-      <c r="D129" s="3"/>
-      <c r="E129" s="1"/>
-      <c r="F129" s="1"/>
-      <c r="G129" s="1"/>
-      <c r="H129" s="1"/>
-      <c r="I129" s="1"/>
-      <c r="J129" s="1"/>
-      <c r="K129" s="1"/>
-      <c r="L129" s="1"/>
-      <c r="M129" s="1"/>
-    </row>
-    <row r="130" spans="1:13" s="189" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="222" t="s">
-        <v>105</v>
-      </c>
-      <c r="B130" s="224">
-        <v>80</v>
-      </c>
-      <c r="C130" s="3"/>
-      <c r="D130" s="3"/>
-      <c r="E130" s="1"/>
-      <c r="F130" s="1"/>
-      <c r="G130" s="1"/>
-      <c r="H130" s="1"/>
-      <c r="I130" s="1"/>
-      <c r="J130" s="1"/>
-      <c r="K130" s="1"/>
-      <c r="L130" s="1"/>
-      <c r="M130" s="1"/>
-    </row>
-    <row r="131" spans="1:13" s="189" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A131" s="25" t="s">
-        <v>106</v>
-      </c>
-      <c r="B131" s="224">
-        <v>40</v>
-      </c>
-      <c r="C131" s="3"/>
-      <c r="D131" s="3"/>
-      <c r="E131" s="1"/>
-      <c r="F131" s="1"/>
-      <c r="G131" s="1"/>
-      <c r="H131" s="1"/>
-      <c r="I131" s="1"/>
-      <c r="J131" s="1"/>
-      <c r="K131" s="1"/>
-      <c r="L131" s="1"/>
-      <c r="M131" s="1"/>
-    </row>
-    <row r="132" spans="1:13" s="189" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="25" t="s">
-        <v>107</v>
-      </c>
-      <c r="B132" s="224">
-        <v>50</v>
-      </c>
-      <c r="C132" s="3"/>
-      <c r="D132" s="3"/>
-      <c r="E132" s="1"/>
-      <c r="F132" s="1"/>
-      <c r="G132" s="1"/>
-      <c r="H132" s="1"/>
-      <c r="I132" s="1"/>
-      <c r="J132" s="1"/>
-      <c r="K132" s="1"/>
-      <c r="L132" s="1"/>
-      <c r="M132" s="1"/>
-    </row>
-    <row r="133" spans="1:13" s="189" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="222" t="s">
-        <v>108</v>
-      </c>
-      <c r="B133" s="224">
-        <v>30</v>
-      </c>
-      <c r="C133" s="3"/>
-      <c r="D133" s="3"/>
-      <c r="E133" s="1"/>
-      <c r="F133" s="1"/>
-      <c r="G133" s="1"/>
-      <c r="H133" s="1"/>
-      <c r="I133" s="1"/>
-      <c r="J133" s="1"/>
-      <c r="K133" s="1"/>
-      <c r="L133" s="1"/>
-      <c r="M133" s="1"/>
-    </row>
-    <row r="134" spans="1:13" s="189" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="222" t="s">
-        <v>109</v>
-      </c>
-      <c r="B134" s="224">
-        <v>50</v>
-      </c>
-      <c r="C134" s="3"/>
-      <c r="D134" s="3"/>
-      <c r="E134" s="1"/>
-      <c r="F134" s="1"/>
-      <c r="G134" s="1"/>
-      <c r="H134" s="1"/>
-      <c r="I134" s="1"/>
-      <c r="J134" s="1"/>
-      <c r="K134" s="1"/>
-      <c r="L134" s="1"/>
-      <c r="M134" s="1"/>
-    </row>
-    <row r="135" spans="1:13" s="189" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="222" t="s">
-        <v>112</v>
-      </c>
-      <c r="B135" s="224">
-        <v>50</v>
-      </c>
-      <c r="C135" s="3"/>
-      <c r="D135" s="3"/>
-      <c r="E135" s="1"/>
-      <c r="F135" s="1"/>
-      <c r="G135" s="1"/>
-      <c r="H135" s="1"/>
-      <c r="I135" s="1"/>
-      <c r="J135" s="1"/>
-      <c r="K135" s="1"/>
-      <c r="L135" s="1"/>
-      <c r="M135" s="1"/>
-    </row>
-    <row r="136" spans="1:13" s="189" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A136" s="222" t="s">
-        <v>113</v>
-      </c>
-      <c r="B136" s="224">
-        <v>70</v>
-      </c>
-      <c r="C136" s="3"/>
-      <c r="D136" s="3"/>
-      <c r="E136" s="1"/>
-      <c r="F136" s="1"/>
-      <c r="G136" s="1"/>
-      <c r="H136" s="1"/>
-      <c r="I136" s="1"/>
-      <c r="J136" s="1"/>
-      <c r="K136" s="1"/>
-      <c r="L136" s="1"/>
-      <c r="M136" s="1"/>
-    </row>
-    <row r="137" spans="1:13" s="189" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A137" s="234" t="s">
-        <v>114</v>
-      </c>
-      <c r="B137" s="235">
-        <v>10</v>
-      </c>
-      <c r="C137" s="3"/>
-      <c r="D137" s="3"/>
-      <c r="E137" s="1"/>
-      <c r="F137" s="1"/>
-      <c r="G137" s="1"/>
-      <c r="H137" s="1"/>
-      <c r="I137" s="1"/>
-      <c r="J137" s="1"/>
-      <c r="K137" s="1"/>
-      <c r="L137" s="1"/>
-      <c r="M137" s="1"/>
-    </row>
-    <row r="138" spans="1:13" ht="14.4" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="B109:C109"/>
-    <mergeCell ref="B110:C110"/>
-    <mergeCell ref="B125:C125"/>
-    <mergeCell ref="A98:B98"/>
-    <mergeCell ref="A99:B99"/>
-    <mergeCell ref="A100:B100"/>
-    <mergeCell ref="A101:B101"/>
-    <mergeCell ref="A107:C107"/>
-    <mergeCell ref="B108:C108"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="A92:B92"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A42:C42"/>
     <mergeCell ref="A96:B96"/>
     <mergeCell ref="A68:C68"/>
     <mergeCell ref="A80:C80"/>
@@ -5225,18 +5020,20 @@
     <mergeCell ref="A88:B88"/>
     <mergeCell ref="A89:B89"/>
     <mergeCell ref="A90:B90"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A42:C42"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="B105:C105"/>
+    <mergeCell ref="B106:C106"/>
+    <mergeCell ref="B121:C121"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="A103:C103"/>
+    <mergeCell ref="B104:C104"/>
   </mergeCells>
   <pageMargins left="0.81" right="0.25" top="0.35" bottom="0.33" header="0.35" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/documents/Cjenik 2020.xlsx
+++ b/documents/Cjenik 2020.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Centar Taban\ZAG ORA\Evidencije\CJENIK 2019\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\4. Programming Projects\2. Development\3. Clients\1. Taban\Taban-Official\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98A43601-EC34-43E9-B54D-733D7F69915C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7F277B2-A920-49AE-8EE9-9687FC88A746}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B27958B2-9F5D-4EC8-9D34-F44FF3A088AA}"/>
   </bookViews>
@@ -467,10 +467,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="8" formatCode="#,##0.00\ &quot;kn&quot;;[Red]\-#,##0.00\ &quot;kn&quot;"/>
-    <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;kn&quot;"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0.00\ _k_n_-;\-* #,##0.00\ _k_n_-;_-* &quot;-&quot;??\ _k_n_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="#,##0.00\ _k_n"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;kn&quot;;[Red]\-#,##0.00\ &quot;kn&quot;"/>
+    <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;kn&quot;"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0.00\ _k_n_-;\-* #,##0.00\ _k_n_-;_-* &quot;-&quot;??\ _k_n_-;_-@_-"/>
+    <numFmt numFmtId="167" formatCode="#,##0.00\ _k_n"/>
   </numFmts>
   <fonts count="21" x14ac:knownFonts="1">
     <font>
@@ -2318,12 +2318,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="234">
+  <cellXfs count="236">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2332,25 +2332,25 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2359,13 +2359,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2374,214 +2374,214 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="1" fillId="0" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="1" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="8" fontId="1" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2599,13 +2599,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2614,10 +2614,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2626,7 +2626,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2635,7 +2635,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="82" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="83" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="83" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="84" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2644,7 +2644,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="85" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="86" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2653,7 +2653,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="88" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="88" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2662,10 +2662,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="89" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="91" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2674,7 +2674,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="92" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="93" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="93" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="94" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2683,7 +2683,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="94" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="94" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="94" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="95" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2692,7 +2692,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="96" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2701,7 +2701,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="98" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2710,7 +2710,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="99" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="100" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="100" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2722,10 +2722,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="102" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="103" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="103" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="104" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2734,7 +2734,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="105" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="106" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="106" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="107" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2746,7 +2746,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="109" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="110" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2755,7 +2755,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="111" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="112" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="112" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="113" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2764,7 +2764,7 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="114" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="8" fontId="7" fillId="0" borderId="115" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="115" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2773,7 +2773,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="8" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2782,7 +2782,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="8" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2791,7 +2791,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="8" fontId="7" fillId="0" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2800,19 +2800,19 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="8" fontId="7" fillId="0" borderId="106" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="19" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="19" fillId="0" borderId="115" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="19" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="106" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="115" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2839,64 +2839,115 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="123" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="124" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="124" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="125" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="126" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="126" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="127" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="127" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="128" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="128" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="128" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="128" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="128" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="128" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="129" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="129" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="91" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="121" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="122" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="112" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="130" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="131" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="84" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="113" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2911,6 +2962,42 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="113" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="114" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="121" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="122" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="112" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="130" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="131" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="110" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
@@ -2926,98 +3013,17 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="119" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="120" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="113" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="114" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="119" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="120" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="84" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3333,10 +3339,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EEE1CE5-46D4-4AFC-ADB7-89CCF34326B0}">
-  <dimension ref="A1:M126"/>
+  <dimension ref="A1:M129"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="F109" sqref="F109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -3349,24 +3355,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="230" t="s">
+      <c r="B1" s="190" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="230"/>
+      <c r="C1" s="190"/>
     </row>
     <row r="2" spans="1:13" s="3" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:13" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="211" t="s">
+      <c r="A3" s="191" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="212"/>
-      <c r="C3" s="213"/>
+      <c r="B3" s="192"/>
+      <c r="C3" s="193"/>
       <c r="E3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="231" t="s">
+      <c r="A4" s="194" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -3377,7 +3383,7 @@
       </c>
     </row>
     <row r="5" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="232"/>
+      <c r="A5" s="195"/>
       <c r="B5" s="6" t="s">
         <v>4</v>
       </c>
@@ -3386,7 +3392,7 @@
       </c>
     </row>
     <row r="6" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="221" t="s">
+      <c r="A6" s="196" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="8" t="s">
@@ -3397,7 +3403,7 @@
       </c>
     </row>
     <row r="7" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="224"/>
+      <c r="A7" s="197"/>
       <c r="B7" s="10" t="s">
         <v>8</v>
       </c>
@@ -3406,7 +3412,7 @@
       </c>
     </row>
     <row r="8" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="224"/>
+      <c r="A8" s="197"/>
       <c r="B8" s="10" t="s">
         <v>10</v>
       </c>
@@ -3453,8 +3459,8 @@
       <c r="M11" s="1"/>
     </row>
     <row r="12" spans="1:13" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="233"/>
-      <c r="B12" s="233"/>
+      <c r="A12" s="198"/>
+      <c r="B12" s="198"/>
       <c r="C12" s="21"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
@@ -3471,11 +3477,11 @@
       <c r="G13" s="22"/>
     </row>
     <row r="14" spans="1:13" ht="16.350000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="211" t="s">
+      <c r="A14" s="191" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="212"/>
-      <c r="C14" s="213"/>
+      <c r="B14" s="192"/>
+      <c r="C14" s="193"/>
       <c r="E14" s="1" t="s">
         <v>17</v>
       </c>
@@ -3556,11 +3562,11 @@
       <c r="G21" s="23"/>
     </row>
     <row r="22" spans="1:7" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="219" t="s">
+      <c r="A22" s="199" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="219"/>
-      <c r="C22" s="220"/>
+      <c r="B22" s="199"/>
+      <c r="C22" s="200"/>
       <c r="G22" s="23"/>
     </row>
     <row r="23" spans="1:7" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -3606,11 +3612,11 @@
       <c r="G27" s="42"/>
     </row>
     <row r="28" spans="1:7" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="211" t="s">
+      <c r="A28" s="191" t="s">
         <v>31</v>
       </c>
-      <c r="B28" s="212"/>
-      <c r="C28" s="213"/>
+      <c r="B28" s="192"/>
+      <c r="C28" s="193"/>
       <c r="E28" s="2" t="s">
         <v>31</v>
       </c>
@@ -3663,7 +3669,7 @@
       <c r="G32" s="42"/>
     </row>
     <row r="33" spans="1:9" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="221" t="s">
+      <c r="A33" s="196" t="s">
         <v>38</v>
       </c>
       <c r="B33" s="65" t="s">
@@ -3675,7 +3681,7 @@
       <c r="G33" s="31"/>
     </row>
     <row r="34" spans="1:9" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="222"/>
+      <c r="A34" s="201"/>
       <c r="B34" s="67" t="s">
         <v>19</v>
       </c>
@@ -3685,7 +3691,7 @@
       <c r="G34" s="31"/>
     </row>
     <row r="35" spans="1:9" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="223" t="s">
+      <c r="A35" s="202" t="s">
         <v>39</v>
       </c>
       <c r="B35" s="69" t="s">
@@ -3697,7 +3703,7 @@
       <c r="G35" s="24"/>
     </row>
     <row r="36" spans="1:9" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="224"/>
+      <c r="A36" s="197"/>
       <c r="B36" s="60" t="s">
         <v>19</v>
       </c>
@@ -3753,11 +3759,11 @@
       <c r="I41" s="2"/>
     </row>
     <row r="42" spans="1:9" ht="16.350000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="225" t="s">
+      <c r="A42" s="203" t="s">
         <v>43</v>
       </c>
-      <c r="B42" s="226"/>
-      <c r="C42" s="227"/>
+      <c r="B42" s="204"/>
+      <c r="C42" s="205"/>
       <c r="G42" s="77"/>
     </row>
     <row r="43" spans="1:9" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -3899,10 +3905,10 @@
       <c r="D57" s="1"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" s="228" t="s">
+      <c r="A58" s="188" t="s">
         <v>56</v>
       </c>
-      <c r="B58" s="229"/>
+      <c r="B58" s="189"/>
       <c r="C58" s="100">
         <v>20</v>
       </c>
@@ -3977,11 +3983,11 @@
       <c r="D67" s="1"/>
     </row>
     <row r="68" spans="1:13" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="211" t="s">
+      <c r="A68" s="191" t="s">
         <v>62</v>
       </c>
-      <c r="B68" s="212"/>
-      <c r="C68" s="213"/>
+      <c r="B68" s="192"/>
+      <c r="C68" s="193"/>
       <c r="D68" s="1"/>
       <c r="E68" s="1" t="s">
         <v>116</v>
@@ -4136,11 +4142,11 @@
       <c r="M79" s="1"/>
     </row>
     <row r="80" spans="1:13" s="2" customFormat="1" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A80" s="214" t="s">
+      <c r="A80" s="208" t="s">
         <v>72</v>
       </c>
-      <c r="B80" s="215"/>
-      <c r="C80" s="216"/>
+      <c r="B80" s="209"/>
+      <c r="C80" s="210"/>
       <c r="E80" s="1" t="s">
         <v>116</v>
       </c>
@@ -4264,10 +4270,10 @@
       <c r="M86" s="1"/>
     </row>
     <row r="87" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="194" t="s">
+      <c r="A87" s="211" t="s">
         <v>79</v>
       </c>
-      <c r="B87" s="195"/>
+      <c r="B87" s="212"/>
       <c r="C87" s="149"/>
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
@@ -4280,10 +4286,10 @@
       <c r="M87" s="1"/>
     </row>
     <row r="88" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="196" t="s">
+      <c r="A88" s="213" t="s">
         <v>80</v>
       </c>
-      <c r="B88" s="197"/>
+      <c r="B88" s="214"/>
       <c r="C88" s="152">
         <v>200</v>
       </c>
@@ -4298,10 +4304,10 @@
       <c r="M88" s="1"/>
     </row>
     <row r="89" spans="1:13" s="2" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A89" s="217" t="s">
+      <c r="A89" s="215" t="s">
         <v>81</v>
       </c>
-      <c r="B89" s="218"/>
+      <c r="B89" s="216"/>
       <c r="C89" s="155">
         <v>150</v>
       </c>
@@ -4316,10 +4322,10 @@
       <c r="M89" s="1"/>
     </row>
     <row r="90" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="194" t="s">
+      <c r="A90" s="211" t="s">
         <v>82</v>
       </c>
-      <c r="B90" s="195"/>
+      <c r="B90" s="212"/>
       <c r="C90" s="149"/>
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
@@ -4332,10 +4338,10 @@
       <c r="M90" s="1"/>
     </row>
     <row r="91" spans="1:13" s="162" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="196" t="s">
+      <c r="A91" s="213" t="s">
         <v>83</v>
       </c>
-      <c r="B91" s="197"/>
+      <c r="B91" s="214"/>
       <c r="C91" s="152">
         <v>150</v>
       </c>
@@ -4351,10 +4357,10 @@
       <c r="M91" s="1"/>
     </row>
     <row r="92" spans="1:13" s="162" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A92" s="205" t="s">
+      <c r="A92" s="217" t="s">
         <v>84</v>
       </c>
-      <c r="B92" s="206"/>
+      <c r="B92" s="218"/>
       <c r="C92" s="163">
         <v>120</v>
       </c>
@@ -4370,10 +4376,10 @@
       <c r="M92" s="1"/>
     </row>
     <row r="93" spans="1:13" s="162" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="207" t="s">
+      <c r="A93" s="219" t="s">
         <v>85</v>
       </c>
-      <c r="B93" s="208"/>
+      <c r="B93" s="220"/>
       <c r="C93" s="164">
         <v>300</v>
       </c>
@@ -4389,10 +4395,10 @@
       <c r="M93" s="1"/>
     </row>
     <row r="94" spans="1:13" s="162" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A94" s="205" t="s">
+      <c r="A94" s="217" t="s">
         <v>86</v>
       </c>
-      <c r="B94" s="206"/>
+      <c r="B94" s="218"/>
       <c r="C94" s="163">
         <v>50</v>
       </c>
@@ -4408,10 +4414,10 @@
       <c r="M94" s="1"/>
     </row>
     <row r="95" spans="1:13" s="162" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="207" t="s">
+      <c r="A95" s="219" t="s">
         <v>87</v>
       </c>
-      <c r="B95" s="208"/>
+      <c r="B95" s="220"/>
       <c r="C95" s="164">
         <v>200</v>
       </c>
@@ -4427,10 +4433,10 @@
       <c r="M95" s="1"/>
     </row>
     <row r="96" spans="1:13" s="162" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="209" t="s">
+      <c r="A96" s="206" t="s">
         <v>88</v>
       </c>
-      <c r="B96" s="210"/>
+      <c r="B96" s="207"/>
       <c r="C96" s="165">
         <v>50</v>
       </c>
@@ -4465,10 +4471,10 @@
       <c r="M97" s="1"/>
     </row>
     <row r="98" spans="1:13" s="162" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="194" t="s">
+      <c r="A98" s="211" t="s">
         <v>90</v>
       </c>
-      <c r="B98" s="195"/>
+      <c r="B98" s="212"/>
       <c r="C98" s="164">
         <v>250</v>
       </c>
@@ -4484,10 +4490,10 @@
       <c r="M98" s="1"/>
     </row>
     <row r="99" spans="1:13" s="162" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="196" t="s">
+      <c r="A99" s="213" t="s">
         <v>91</v>
       </c>
-      <c r="B99" s="197"/>
+      <c r="B99" s="214"/>
       <c r="C99" s="165">
         <v>150</v>
       </c>
@@ -4503,10 +4509,10 @@
       <c r="M99" s="1"/>
     </row>
     <row r="100" spans="1:13" s="162" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="196" t="s">
+      <c r="A100" s="213" t="s">
         <v>92</v>
       </c>
-      <c r="B100" s="197"/>
+      <c r="B100" s="214"/>
       <c r="C100" s="165">
         <v>200</v>
       </c>
@@ -4522,10 +4528,10 @@
       <c r="M100" s="1"/>
     </row>
     <row r="101" spans="1:13" s="162" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A101" s="198" t="s">
+      <c r="A101" s="227" t="s">
         <v>93</v>
       </c>
-      <c r="B101" s="199"/>
+      <c r="B101" s="228"/>
       <c r="C101" s="168" t="s">
         <v>94</v>
       </c>
@@ -4556,11 +4562,11 @@
       <c r="M102" s="1"/>
     </row>
     <row r="103" spans="1:13" s="162" customFormat="1" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A103" s="200" t="s">
+      <c r="A103" s="229" t="s">
         <v>95</v>
       </c>
-      <c r="B103" s="201"/>
-      <c r="C103" s="202"/>
+      <c r="B103" s="230"/>
+      <c r="C103" s="231"/>
       <c r="D103" s="2"/>
       <c r="E103" s="1" t="s">
         <v>116</v>
@@ -4578,10 +4584,10 @@
       <c r="A104" s="170" t="s">
         <v>96</v>
       </c>
-      <c r="B104" s="203">
+      <c r="B104" s="232">
         <v>80</v>
       </c>
-      <c r="C104" s="204"/>
+      <c r="C104" s="233"/>
       <c r="D104" s="2"/>
       <c r="E104" s="1"/>
       <c r="F104" s="1"/>
@@ -4597,10 +4603,10 @@
       <c r="A105" s="171" t="s">
         <v>97</v>
       </c>
-      <c r="B105" s="188">
+      <c r="B105" s="221">
         <v>40</v>
       </c>
-      <c r="C105" s="189"/>
+      <c r="C105" s="222"/>
       <c r="D105" s="2"/>
       <c r="E105" s="1"/>
       <c r="F105" s="1"/>
@@ -4616,10 +4622,10 @@
       <c r="A106" s="172" t="s">
         <v>98</v>
       </c>
-      <c r="B106" s="190">
+      <c r="B106" s="223">
         <v>40</v>
       </c>
-      <c r="C106" s="191"/>
+      <c r="C106" s="224"/>
       <c r="D106" s="2"/>
       <c r="E106" s="1"/>
       <c r="F106" s="1"/>
@@ -4631,10 +4637,10 @@
       <c r="L106" s="1"/>
       <c r="M106" s="1"/>
     </row>
-    <row r="107" spans="1:13" s="162" customFormat="1" ht="13.8" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="1"/>
-      <c r="B107" s="3"/>
-      <c r="C107" s="2"/>
+    <row r="107" spans="1:13" s="162" customFormat="1" ht="14.4" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="234"/>
+      <c r="B107" s="235"/>
+      <c r="C107" s="235"/>
       <c r="D107" s="2"/>
       <c r="E107" s="1"/>
       <c r="F107" s="1"/>
@@ -4646,10 +4652,10 @@
       <c r="L107" s="1"/>
       <c r="M107" s="1"/>
     </row>
-    <row r="108" spans="1:13" s="162" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A108" s="1"/>
-      <c r="B108" s="3"/>
-      <c r="C108" s="2"/>
+    <row r="108" spans="1:13" s="162" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="234"/>
+      <c r="B108" s="235"/>
+      <c r="C108" s="235"/>
       <c r="D108" s="2"/>
       <c r="E108" s="1"/>
       <c r="F108" s="1"/>
@@ -4661,20 +4667,12 @@
       <c r="L108" s="1"/>
       <c r="M108" s="1"/>
     </row>
-    <row r="109" spans="1:13" s="162" customFormat="1" ht="13.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A109" s="89" t="s">
-        <v>99</v>
-      </c>
-      <c r="B109" s="173" t="s">
-        <v>100</v>
-      </c>
-      <c r="C109" s="174" t="s">
-        <v>101</v>
-      </c>
+    <row r="109" spans="1:13" s="162" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="234"/>
+      <c r="B109" s="235"/>
+      <c r="C109" s="235"/>
       <c r="D109" s="2"/>
-      <c r="E109" s="1" t="s">
-        <v>116</v>
-      </c>
+      <c r="E109" s="1"/>
       <c r="F109" s="1"/>
       <c r="G109" s="1"/>
       <c r="H109" s="1"/>
@@ -4685,15 +4683,9 @@
       <c r="M109" s="1"/>
     </row>
     <row r="110" spans="1:13" s="162" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="175" t="s">
-        <v>102</v>
-      </c>
-      <c r="B110" s="176">
-        <v>60</v>
-      </c>
-      <c r="C110" s="177">
-        <v>90</v>
-      </c>
+      <c r="A110" s="1"/>
+      <c r="B110" s="3"/>
+      <c r="C110" s="2"/>
       <c r="D110" s="2"/>
       <c r="E110" s="1"/>
       <c r="F110" s="1"/>
@@ -4705,29 +4697,35 @@
       <c r="L110" s="1"/>
       <c r="M110" s="1"/>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A111" s="178" t="s">
-        <v>103</v>
-      </c>
-      <c r="B111" s="179">
-        <v>90</v>
-      </c>
-      <c r="C111" s="180">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="112" spans="1:13" s="162" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="178" t="s">
-        <v>104</v>
-      </c>
-      <c r="B112" s="179">
-        <v>50</v>
-      </c>
-      <c r="C112" s="180">
-        <v>80</v>
+    <row r="111" spans="1:13" s="162" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A111" s="1"/>
+      <c r="B111" s="3"/>
+      <c r="C111" s="2"/>
+      <c r="D111" s="2"/>
+      <c r="E111" s="1"/>
+      <c r="F111" s="1"/>
+      <c r="G111" s="1"/>
+      <c r="H111" s="1"/>
+      <c r="I111" s="1"/>
+      <c r="J111" s="1"/>
+      <c r="K111" s="1"/>
+      <c r="L111" s="1"/>
+      <c r="M111" s="1"/>
+    </row>
+    <row r="112" spans="1:13" s="162" customFormat="1" ht="13.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A112" s="89" t="s">
+        <v>99</v>
+      </c>
+      <c r="B112" s="173" t="s">
+        <v>100</v>
+      </c>
+      <c r="C112" s="174" t="s">
+        <v>101</v>
       </c>
       <c r="D112" s="2"/>
-      <c r="E112" s="1"/>
+      <c r="E112" s="1" t="s">
+        <v>116</v>
+      </c>
       <c r="F112" s="1"/>
       <c r="G112" s="1"/>
       <c r="H112" s="1"/>
@@ -4737,15 +4735,15 @@
       <c r="L112" s="1"/>
       <c r="M112" s="1"/>
     </row>
-    <row r="113" spans="1:13" s="162" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="B113" s="181">
-        <v>30</v>
-      </c>
-      <c r="C113" s="180">
-        <v>40</v>
+    <row r="113" spans="1:13" s="162" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="175" t="s">
+        <v>102</v>
+      </c>
+      <c r="B113" s="176">
+        <v>60</v>
+      </c>
+      <c r="C113" s="177">
+        <v>90</v>
       </c>
       <c r="D113" s="2"/>
       <c r="E113" s="1"/>
@@ -4758,36 +4756,26 @@
       <c r="L113" s="1"/>
       <c r="M113" s="1"/>
     </row>
-    <row r="114" spans="1:13" s="162" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="B114" s="181">
-        <v>30</v>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A114" s="178" t="s">
+        <v>103</v>
+      </c>
+      <c r="B114" s="179">
+        <v>90</v>
       </c>
       <c r="C114" s="180">
-        <v>50</v>
-      </c>
-      <c r="D114" s="2"/>
-      <c r="E114" s="1"/>
-      <c r="F114" s="1"/>
-      <c r="G114" s="1"/>
-      <c r="H114" s="1"/>
-      <c r="I114" s="1"/>
-      <c r="J114" s="1"/>
-      <c r="K114" s="1"/>
-      <c r="L114" s="1"/>
-      <c r="M114" s="1"/>
+        <v>200</v>
+      </c>
     </row>
     <row r="115" spans="1:13" s="162" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A115" s="178" t="s">
-        <v>107</v>
-      </c>
-      <c r="B115" s="181">
-        <v>20</v>
+        <v>104</v>
+      </c>
+      <c r="B115" s="179">
+        <v>50</v>
       </c>
       <c r="C115" s="180">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="D115" s="2"/>
       <c r="E115" s="1"/>
@@ -4801,14 +4789,14 @@
       <c r="M115" s="1"/>
     </row>
     <row r="116" spans="1:13" s="162" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="178" t="s">
-        <v>108</v>
+      <c r="A116" s="17" t="s">
+        <v>105</v>
       </c>
       <c r="B116" s="181">
         <v>30</v>
       </c>
       <c r="C116" s="180">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D116" s="2"/>
       <c r="E116" s="1"/>
@@ -4822,14 +4810,14 @@
       <c r="M116" s="1"/>
     </row>
     <row r="117" spans="1:13" s="162" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="178" t="s">
-        <v>109</v>
+      <c r="A117" s="17" t="s">
+        <v>106</v>
       </c>
       <c r="B117" s="181">
-        <v>70</v>
-      </c>
-      <c r="C117" s="182" t="s">
-        <v>110</v>
+        <v>30</v>
+      </c>
+      <c r="C117" s="180">
+        <v>50</v>
       </c>
       <c r="D117" s="2"/>
       <c r="E117" s="1"/>
@@ -4844,13 +4832,13 @@
     </row>
     <row r="118" spans="1:13" s="162" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A118" s="178" t="s">
-        <v>111</v>
-      </c>
-      <c r="B118" s="183" t="s">
-        <v>110</v>
+        <v>107</v>
+      </c>
+      <c r="B118" s="181">
+        <v>20</v>
       </c>
       <c r="C118" s="180">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="D118" s="2"/>
       <c r="E118" s="1"/>
@@ -4865,13 +4853,13 @@
     </row>
     <row r="119" spans="1:13" s="162" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A119" s="178" t="s">
-        <v>112</v>
-      </c>
-      <c r="B119" s="179">
+        <v>108</v>
+      </c>
+      <c r="B119" s="181">
+        <v>30</v>
+      </c>
+      <c r="C119" s="180">
         <v>50</v>
-      </c>
-      <c r="C119" s="180">
-        <v>70</v>
       </c>
       <c r="D119" s="2"/>
       <c r="E119" s="1"/>
@@ -4885,14 +4873,14 @@
       <c r="M119" s="1"/>
     </row>
     <row r="120" spans="1:13" s="162" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="184" t="s">
-        <v>113</v>
-      </c>
-      <c r="B120" s="185" t="s">
+      <c r="A120" s="178" t="s">
+        <v>109</v>
+      </c>
+      <c r="B120" s="181">
+        <v>70</v>
+      </c>
+      <c r="C120" s="182" t="s">
         <v>110</v>
-      </c>
-      <c r="C120" s="186">
-        <v>10</v>
       </c>
       <c r="D120" s="2"/>
       <c r="E120" s="1"/>
@@ -4905,14 +4893,16 @@
       <c r="L120" s="1"/>
       <c r="M120" s="1"/>
     </row>
-    <row r="121" spans="1:13" s="162" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A121" s="187" t="s">
-        <v>114</v>
-      </c>
-      <c r="B121" s="192">
-        <v>30</v>
-      </c>
-      <c r="C121" s="193"/>
+    <row r="121" spans="1:13" s="162" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="178" t="s">
+        <v>111</v>
+      </c>
+      <c r="B121" s="183" t="s">
+        <v>110</v>
+      </c>
+      <c r="C121" s="180">
+        <v>50</v>
+      </c>
       <c r="D121" s="2"/>
       <c r="E121" s="1"/>
       <c r="F121" s="1"/>
@@ -4924,10 +4914,16 @@
       <c r="L121" s="1"/>
       <c r="M121" s="1"/>
     </row>
-    <row r="122" spans="1:13" s="162" customFormat="1" ht="14.4" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="1"/>
-      <c r="B122" s="3"/>
-      <c r="C122" s="2"/>
+    <row r="122" spans="1:13" s="162" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="178" t="s">
+        <v>112</v>
+      </c>
+      <c r="B122" s="179">
+        <v>50</v>
+      </c>
+      <c r="C122" s="180">
+        <v>70</v>
+      </c>
       <c r="D122" s="2"/>
       <c r="E122" s="1"/>
       <c r="F122" s="1"/>
@@ -4940,9 +4936,15 @@
       <c r="M122" s="1"/>
     </row>
     <row r="123" spans="1:13" s="162" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="1"/>
-      <c r="B123" s="3"/>
-      <c r="C123" s="2"/>
+      <c r="A123" s="184" t="s">
+        <v>113</v>
+      </c>
+      <c r="B123" s="185" t="s">
+        <v>110</v>
+      </c>
+      <c r="C123" s="186">
+        <v>10</v>
+      </c>
       <c r="D123" s="2"/>
       <c r="E123" s="1"/>
       <c r="F123" s="1"/>
@@ -4954,10 +4956,14 @@
       <c r="L123" s="1"/>
       <c r="M123" s="1"/>
     </row>
-    <row r="124" spans="1:13" s="162" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="1"/>
-      <c r="B124" s="3"/>
-      <c r="C124" s="2"/>
+    <row r="124" spans="1:13" s="162" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A124" s="187" t="s">
+        <v>114</v>
+      </c>
+      <c r="B124" s="225">
+        <v>30</v>
+      </c>
+      <c r="C124" s="226"/>
       <c r="D124" s="2"/>
       <c r="E124" s="1"/>
       <c r="F124" s="1"/>
@@ -4969,7 +4975,7 @@
       <c r="L124" s="1"/>
       <c r="M124" s="1"/>
     </row>
-    <row r="125" spans="1:13" s="162" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:13" s="162" customFormat="1" ht="14.4" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A125" s="1"/>
       <c r="B125" s="3"/>
       <c r="C125" s="2"/>
@@ -4999,8 +5005,74 @@
       <c r="L126" s="1"/>
       <c r="M126" s="1"/>
     </row>
+    <row r="127" spans="1:13" s="162" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A127" s="1"/>
+      <c r="B127" s="3"/>
+      <c r="C127" s="2"/>
+      <c r="D127" s="2"/>
+      <c r="E127" s="1"/>
+      <c r="F127" s="1"/>
+      <c r="G127" s="1"/>
+      <c r="H127" s="1"/>
+      <c r="I127" s="1"/>
+      <c r="J127" s="1"/>
+      <c r="K127" s="1"/>
+      <c r="L127" s="1"/>
+      <c r="M127" s="1"/>
+    </row>
+    <row r="128" spans="1:13" s="162" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A128" s="1"/>
+      <c r="B128" s="3"/>
+      <c r="C128" s="2"/>
+      <c r="D128" s="2"/>
+      <c r="E128" s="1"/>
+      <c r="F128" s="1"/>
+      <c r="G128" s="1"/>
+      <c r="H128" s="1"/>
+      <c r="I128" s="1"/>
+      <c r="J128" s="1"/>
+      <c r="K128" s="1"/>
+      <c r="L128" s="1"/>
+      <c r="M128" s="1"/>
+    </row>
+    <row r="129" spans="1:13" s="162" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A129" s="1"/>
+      <c r="B129" s="3"/>
+      <c r="C129" s="2"/>
+      <c r="D129" s="2"/>
+      <c r="E129" s="1"/>
+      <c r="F129" s="1"/>
+      <c r="G129" s="1"/>
+      <c r="H129" s="1"/>
+      <c r="I129" s="1"/>
+      <c r="J129" s="1"/>
+      <c r="K129" s="1"/>
+      <c r="L129" s="1"/>
+      <c r="M129" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="B105:C105"/>
+    <mergeCell ref="B106:C106"/>
+    <mergeCell ref="B124:C124"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="A103:C103"/>
+    <mergeCell ref="B104:C104"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="A68:C68"/>
+    <mergeCell ref="A80:C80"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="A95:B95"/>
     <mergeCell ref="A58:B58"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="A3:C3"/>
@@ -5013,27 +5085,6 @@
     <mergeCell ref="A33:A34"/>
     <mergeCell ref="A35:A36"/>
     <mergeCell ref="A42:C42"/>
-    <mergeCell ref="A96:B96"/>
-    <mergeCell ref="A68:C68"/>
-    <mergeCell ref="A80:C80"/>
-    <mergeCell ref="A87:B87"/>
-    <mergeCell ref="A88:B88"/>
-    <mergeCell ref="A89:B89"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="A92:B92"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="B105:C105"/>
-    <mergeCell ref="B106:C106"/>
-    <mergeCell ref="B121:C121"/>
-    <mergeCell ref="A98:B98"/>
-    <mergeCell ref="A99:B99"/>
-    <mergeCell ref="A100:B100"/>
-    <mergeCell ref="A101:B101"/>
-    <mergeCell ref="A103:C103"/>
-    <mergeCell ref="B104:C104"/>
   </mergeCells>
   <pageMargins left="0.81" right="0.25" top="0.35" bottom="0.33" header="0.35" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
